--- a/cleaned lit review results.xlsx
+++ b/cleaned lit review results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51F53068-8B7C-6C45-A6C8-E3A3BC829349}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A98C58F-90EC-5C47-99FD-33F80595B454}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="26840" windowHeight="15020" xr2:uid="{6572F45F-1008-5345-97C2-68802297C706}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>valid_name</t>
   </si>
@@ -733,6 +733,12 @@
   </si>
   <si>
     <t>number of unfiltered results (PubMed)</t>
+  </si>
+  <si>
+    <t>number of unfiltered results (total)</t>
+  </si>
+  <si>
+    <t>number dropped</t>
   </si>
 </sst>
 </file>
@@ -1086,21 +1092,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094E9D58-D3DF-3440-9862-D36736538020}">
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:F233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.1640625" customWidth="1"/>
     <col min="2" max="2" width="30.1640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="3" max="4" width="34.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1111,10 +1118,16 @@
         <v>235</v>
       </c>
       <c r="D1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1125,10 +1138,18 @@
         <v>244</v>
       </c>
       <c r="D2">
+        <f>SUM(B2, C2)</f>
+        <v>2706</v>
+      </c>
+      <c r="E2">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <f>(D2-E2)</f>
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1139,10 +1160,18 @@
         <v>58</v>
       </c>
       <c r="D3">
+        <f>SUM(B3, C3)</f>
+        <v>1101</v>
+      </c>
+      <c r="E3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">(D3-E3)</f>
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1153,10 +1182,18 @@
         <v>81</v>
       </c>
       <c r="D4">
+        <f>SUM(B4, C4)</f>
+        <v>1085</v>
+      </c>
+      <c r="E4">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1167,10 +1204,18 @@
         <v>57</v>
       </c>
       <c r="D5">
+        <f>SUM(B5, C5)</f>
+        <v>823</v>
+      </c>
+      <c r="E5">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1181,10 +1226,18 @@
         <v>76</v>
       </c>
       <c r="D6">
+        <f>SUM(B6, C6)</f>
+        <v>801</v>
+      </c>
+      <c r="E6">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1195,10 +1248,18 @@
         <v>59</v>
       </c>
       <c r="D7">
+        <f>SUM(B7, C7)</f>
+        <v>746</v>
+      </c>
+      <c r="E7">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1209,10 +1270,18 @@
         <v>44</v>
       </c>
       <c r="D8">
+        <f>SUM(B8, C8)</f>
+        <v>697</v>
+      </c>
+      <c r="E8">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1223,10 +1292,18 @@
         <v>59</v>
       </c>
       <c r="D9">
+        <f>SUM(B9, C9)</f>
+        <v>503</v>
+      </c>
+      <c r="E9">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1237,10 +1314,18 @@
         <v>36</v>
       </c>
       <c r="D10">
+        <f>SUM(B10, C10)</f>
+        <v>476</v>
+      </c>
+      <c r="E10">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1251,10 +1336,18 @@
         <v>30</v>
       </c>
       <c r="D11">
+        <f>SUM(B11, C11)</f>
+        <v>456</v>
+      </c>
+      <c r="E11">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1265,10 +1358,18 @@
         <v>7</v>
       </c>
       <c r="D12">
+        <f>SUM(B12, C12)</f>
+        <v>407</v>
+      </c>
+      <c r="E12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1279,10 +1380,18 @@
         <v>18</v>
       </c>
       <c r="D13">
+        <f>SUM(B13, C13)</f>
+        <v>347</v>
+      </c>
+      <c r="E13">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1293,10 +1402,18 @@
         <v>11</v>
       </c>
       <c r="D14">
+        <f>SUM(B14, C14)</f>
+        <v>307</v>
+      </c>
+      <c r="E14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1307,10 +1424,18 @@
         <v>33</v>
       </c>
       <c r="D15">
+        <f>SUM(B15, C15)</f>
+        <v>316</v>
+      </c>
+      <c r="E15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1321,10 +1446,18 @@
         <v>38</v>
       </c>
       <c r="D16">
+        <f>SUM(B16, C16)</f>
+        <v>310</v>
+      </c>
+      <c r="E16">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1335,10 +1468,18 @@
         <v>10</v>
       </c>
       <c r="D17">
+        <f>SUM(B17, C17)</f>
+        <v>259</v>
+      </c>
+      <c r="E17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1349,10 +1490,18 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B18, C18)</f>
+        <v>230</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1363,10 +1512,18 @@
         <v>19</v>
       </c>
       <c r="D19">
+        <f>SUM(B19, C19)</f>
+        <v>245</v>
+      </c>
+      <c r="E19">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1377,10 +1534,18 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B20, C20)</f>
+        <v>198</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1391,10 +1556,18 @@
         <v>14</v>
       </c>
       <c r="D21">
+        <f>SUM(B21, C21)</f>
+        <v>202</v>
+      </c>
+      <c r="E21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1405,10 +1578,18 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B22, C22)</f>
+        <v>169</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1419,10 +1600,18 @@
         <v>7</v>
       </c>
       <c r="D23">
+        <f>SUM(B23, C23)</f>
+        <v>141</v>
+      </c>
+      <c r="E23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1433,10 +1622,18 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B24, C24)</f>
+        <v>116</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1447,10 +1644,18 @@
         <v>0</v>
       </c>
       <c r="D25">
+        <f>SUM(B25, C25)</f>
+        <v>116</v>
+      </c>
+      <c r="E25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1461,10 +1666,18 @@
         <v>8</v>
       </c>
       <c r="D26">
+        <f>SUM(B26, C26)</f>
+        <v>112</v>
+      </c>
+      <c r="E26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1475,10 +1688,18 @@
         <v>7</v>
       </c>
       <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B27, C27)</f>
+        <v>97</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1489,10 +1710,18 @@
         <v>10</v>
       </c>
       <c r="D28">
+        <f>SUM(B28, C28)</f>
+        <v>97</v>
+      </c>
+      <c r="E28">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1503,10 +1732,18 @@
         <v>3</v>
       </c>
       <c r="D29">
+        <f>SUM(B29, C29)</f>
+        <v>93</v>
+      </c>
+      <c r="E29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1517,10 +1754,18 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B30, C30)</f>
+        <v>69</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1531,10 +1776,18 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B31, C31)</f>
+        <v>67</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1545,10 +1798,18 @@
         <v>5</v>
       </c>
       <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B32, C32)</f>
+        <v>65</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1559,10 +1820,18 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <f>SUM(B33, C33)</f>
+        <v>60</v>
+      </c>
+      <c r="E33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1573,10 +1842,18 @@
         <v>12</v>
       </c>
       <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B34, C34)</f>
+        <v>66</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1587,10 +1864,18 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B35, C35)</f>
+        <v>54</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1601,10 +1886,18 @@
         <v>4</v>
       </c>
       <c r="D36">
+        <f>SUM(B36, C36)</f>
+        <v>42</v>
+      </c>
+      <c r="E36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1615,10 +1908,18 @@
         <v>2</v>
       </c>
       <c r="D37">
+        <f>SUM(B37, C37)</f>
+        <v>39</v>
+      </c>
+      <c r="E37">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1629,10 +1930,18 @@
         <v>2</v>
       </c>
       <c r="D38">
+        <f>SUM(B38, C38)</f>
+        <v>40</v>
+      </c>
+      <c r="E38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1643,10 +1952,18 @@
         <v>2</v>
       </c>
       <c r="D39">
+        <f>SUM(B39, C39)</f>
+        <v>38</v>
+      </c>
+      <c r="E39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1657,10 +1974,18 @@
         <v>0</v>
       </c>
       <c r="D40">
+        <f>SUM(B40, C40)</f>
+        <v>35</v>
+      </c>
+      <c r="E40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1671,10 +1996,18 @@
         <v>1</v>
       </c>
       <c r="D41">
+        <f>SUM(B41, C41)</f>
+        <v>35</v>
+      </c>
+      <c r="E41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1685,10 +2018,18 @@
         <v>1</v>
       </c>
       <c r="D42">
+        <f>SUM(B42, C42)</f>
+        <v>35</v>
+      </c>
+      <c r="E42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1699,10 +2040,18 @@
         <v>0</v>
       </c>
       <c r="D43">
+        <f>SUM(B43, C43)</f>
+        <v>32</v>
+      </c>
+      <c r="E43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1713,10 +2062,18 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B44, C44)</f>
+        <v>25</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1727,10 +2084,18 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B45, C45)</f>
+        <v>22</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1741,10 +2106,18 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B46, C46)</f>
+        <v>22</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1755,10 +2128,18 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B47, C47)</f>
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1769,10 +2150,18 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B48, C48)</f>
+        <v>22</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1783,10 +2172,18 @@
         <v>3</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B49, C49)</f>
+        <v>23</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1797,10 +2194,18 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B50, C50)</f>
+        <v>19</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1811,10 +2216,18 @@
         <v>3</v>
       </c>
       <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B51, C51)</f>
+        <v>22</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1825,10 +2238,18 @@
         <v>2</v>
       </c>
       <c r="D52">
+        <f>SUM(B52, C52)</f>
+        <v>21</v>
+      </c>
+      <c r="E52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1839,10 +2260,18 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B53, C53)</f>
+        <v>19</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1853,10 +2282,18 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B54, C54)</f>
+        <v>17</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1867,10 +2304,18 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B55, C55)</f>
+        <v>17</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1881,10 +2326,18 @@
         <v>0</v>
       </c>
       <c r="D56">
+        <f>SUM(B56, C56)</f>
+        <v>17</v>
+      </c>
+      <c r="E56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1895,10 +2348,18 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B57, C57)</f>
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1909,10 +2370,18 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B58, C58)</f>
+        <v>17</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1923,10 +2392,18 @@
         <v>1</v>
       </c>
       <c r="D59">
+        <f>SUM(B59, C59)</f>
+        <v>17</v>
+      </c>
+      <c r="E59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1937,10 +2414,18 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B60, C60)</f>
+        <v>17</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1951,10 +2436,18 @@
         <v>2</v>
       </c>
       <c r="D61">
+        <f>SUM(B61, C61)</f>
+        <v>17</v>
+      </c>
+      <c r="E61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1965,10 +2458,18 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B62, C62)</f>
+        <v>14</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1979,10 +2480,18 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B63, C63)</f>
+        <v>11</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1993,10 +2502,18 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B64, C64)</f>
+        <v>11</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2007,10 +2524,18 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B65, C65)</f>
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2021,10 +2546,18 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B66, C66)</f>
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2035,10 +2568,18 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B67, C67)</f>
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="1">(D67-E67)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2049,10 +2590,18 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B68, C68)</f>
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2063,10 +2612,18 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B69, C69)</f>
+        <v>9</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2077,10 +2634,18 @@
         <v>5</v>
       </c>
       <c r="D70">
+        <f>SUM(B70, C70)</f>
+        <v>14</v>
+      </c>
+      <c r="E70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2091,10 +2656,18 @@
         <v>2</v>
       </c>
       <c r="D71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B71, C71)</f>
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2105,10 +2678,18 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B72, C72)</f>
+        <v>7</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2119,10 +2700,18 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B73, C73)</f>
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
@@ -2133,10 +2722,18 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B74, C74)</f>
+        <v>7</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2147,10 +2744,18 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B75, C75)</f>
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2161,10 +2766,18 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B76, C76)</f>
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2175,10 +2788,18 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B77, C77)</f>
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2189,10 +2810,18 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B78, C78)</f>
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2203,10 +2832,18 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B79, C79)</f>
+        <v>7</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2217,10 +2854,18 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B80, C80)</f>
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2231,10 +2876,18 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B81, C81)</f>
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2245,10 +2898,18 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B82, C82)</f>
+        <v>6</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2259,10 +2920,18 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B83, C83)</f>
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2273,10 +2942,18 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B84, C84)</f>
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2287,10 +2964,18 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B85, C85)</f>
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2301,10 +2986,18 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B86, C86)</f>
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2315,10 +3008,18 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B87, C87)</f>
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2329,10 +3030,18 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B88, C88)</f>
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2343,10 +3052,18 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B89, C89)</f>
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2357,10 +3074,18 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B90, C90)</f>
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2371,10 +3096,18 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B91, C91)</f>
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2385,10 +3118,18 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B92, C92)</f>
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2399,10 +3140,18 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B93, C93)</f>
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2413,10 +3162,18 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B94, C94)</f>
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2427,10 +3184,18 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B95, C95)</f>
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2441,10 +3206,18 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B96, C96)</f>
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2455,10 +3228,18 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B97, C97)</f>
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2469,10 +3250,18 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B98, C98)</f>
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2483,10 +3272,18 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B99, C99)</f>
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2497,10 +3294,18 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B100, C100)</f>
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2511,10 +3316,18 @@
         <v>2</v>
       </c>
       <c r="D101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B101, C101)</f>
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2525,10 +3338,18 @@
         <v>3</v>
       </c>
       <c r="D102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B102, C102)</f>
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2539,10 +3360,18 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B103, C103)</f>
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2553,10 +3382,18 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B104, C104)</f>
+        <v>3</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2567,10 +3404,18 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B105, C105)</f>
+        <v>3</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2581,10 +3426,18 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B106, C106)</f>
+        <v>3</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2595,10 +3448,18 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B107, C107)</f>
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2609,10 +3470,18 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B108, C108)</f>
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2623,10 +3492,18 @@
         <v>2</v>
       </c>
       <c r="D109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B109, C109)</f>
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2637,10 +3514,18 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B110, C110)</f>
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2651,10 +3536,18 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B111, C111)</f>
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2665,10 +3558,18 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B112, C112)</f>
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2679,10 +3580,18 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B113, C113)</f>
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2693,10 +3602,18 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B114, C114)</f>
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2707,10 +3624,18 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B115, C115)</f>
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2721,10 +3646,18 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B116, C116)</f>
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2735,10 +3668,18 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B117, C117)</f>
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2749,10 +3690,18 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B118, C118)</f>
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2763,10 +3712,18 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B119, C119)</f>
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2777,10 +3734,18 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B120, C120)</f>
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2791,10 +3756,18 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B121, C121)</f>
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2805,10 +3778,18 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B122, C122)</f>
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2819,10 +3800,18 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B123, C123)</f>
+        <v>3</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
@@ -2833,10 +3822,18 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B124, C124)</f>
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
@@ -2847,10 +3844,18 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B125, C125)</f>
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2861,10 +3866,18 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B126, C126)</f>
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2875,10 +3888,18 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B127, C127)</f>
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2889,10 +3910,18 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B128, C128)</f>
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2903,10 +3932,18 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B129, C129)</f>
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2917,10 +3954,18 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B130, C130)</f>
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2931,10 +3976,18 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B131, C131)</f>
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ref="F131:F194" si="2">(D131-E131)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2945,10 +3998,18 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B132, C132)</f>
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2959,10 +4020,18 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B133, C133)</f>
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -2973,10 +4042,18 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B134, C134)</f>
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -2987,10 +4064,18 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B135, C135)</f>
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -3001,10 +4086,18 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B136, C136)</f>
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -3015,10 +4108,18 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B137, C137)</f>
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -3029,10 +4130,18 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B138, C138)</f>
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -3043,10 +4152,18 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B139, C139)</f>
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -3057,10 +4174,18 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B140, C140)</f>
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -3071,10 +4196,18 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B141, C141)</f>
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -3085,10 +4218,18 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B142, C142)</f>
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -3099,10 +4240,18 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B143, C143)</f>
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -3113,10 +4262,18 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B144, C144)</f>
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -3127,10 +4284,18 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B145, C145)</f>
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -3141,10 +4306,18 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B146, C146)</f>
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -3155,10 +4328,18 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B147, C147)</f>
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -3169,10 +4350,18 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B148, C148)</f>
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -3183,10 +4372,18 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B149, C149)</f>
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -3197,10 +4394,18 @@
         <v>0</v>
       </c>
       <c r="D150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B150, C150)</f>
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -3211,10 +4416,18 @@
         <v>0</v>
       </c>
       <c r="D151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B151, C151)</f>
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -3225,10 +4438,18 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B152, C152)</f>
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -3239,10 +4460,18 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B153, C153)</f>
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -3253,10 +4482,18 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B154, C154)</f>
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -3267,10 +4504,18 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B155, C155)</f>
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -3281,10 +4526,18 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B156, C156)</f>
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -3295,10 +4548,18 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B157, C157)</f>
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -3309,10 +4570,18 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B158, C158)</f>
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -3323,10 +4592,18 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B159, C159)</f>
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -3337,10 +4614,18 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B160, C160)</f>
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -3351,10 +4636,18 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B161, C161)</f>
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -3365,10 +4658,18 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B162, C162)</f>
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -3379,10 +4680,18 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B163, C163)</f>
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -3393,10 +4702,18 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B164, C164)</f>
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -3407,10 +4724,18 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B165, C165)</f>
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -3421,10 +4746,18 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B166, C166)</f>
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -3435,10 +4768,18 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B167, C167)</f>
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -3449,10 +4790,18 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B168, C168)</f>
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -3463,10 +4812,18 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B169, C169)</f>
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -3477,10 +4834,18 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B170, C170)</f>
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -3491,10 +4856,18 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B171, C171)</f>
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -3505,10 +4878,18 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B172, C172)</f>
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -3519,10 +4900,18 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B173, C173)</f>
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -3533,10 +4922,18 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B174, C174)</f>
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -3547,10 +4944,18 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B175, C175)</f>
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -3561,10 +4966,18 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B176, C176)</f>
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -3575,10 +4988,18 @@
         <v>0</v>
       </c>
       <c r="D177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B177, C177)</f>
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -3589,10 +5010,18 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B178, C178)</f>
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -3603,10 +5032,18 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B179, C179)</f>
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -3617,10 +5054,18 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B180, C180)</f>
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -3631,10 +5076,18 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B181, C181)</f>
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -3645,10 +5098,18 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B182, C182)</f>
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -3659,10 +5120,18 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B183, C183)</f>
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -3673,10 +5142,18 @@
         <v>0</v>
       </c>
       <c r="D184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B184, C184)</f>
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -3687,10 +5164,18 @@
         <v>0</v>
       </c>
       <c r="D185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B185, C185)</f>
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -3701,10 +5186,18 @@
         <v>0</v>
       </c>
       <c r="D186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B186, C186)</f>
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -3715,10 +5208,18 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B187, C187)</f>
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -3729,10 +5230,18 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B188, C188)</f>
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -3743,10 +5252,18 @@
         <v>0</v>
       </c>
       <c r="D189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B189, C189)</f>
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -3757,10 +5274,18 @@
         <v>0</v>
       </c>
       <c r="D190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B190, C190)</f>
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -3771,10 +5296,18 @@
         <v>0</v>
       </c>
       <c r="D191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B191, C191)</f>
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -3785,10 +5318,18 @@
         <v>0</v>
       </c>
       <c r="D192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B192, C192)</f>
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -3799,10 +5340,18 @@
         <v>0</v>
       </c>
       <c r="D193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B193, C193)</f>
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -3813,10 +5362,18 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B194, C194)</f>
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -3827,10 +5384,18 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B195, C195)</f>
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <f t="shared" ref="F195:F233" si="3">(D195-E195)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -3841,10 +5406,18 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B196, C196)</f>
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -3855,10 +5428,18 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B197, C197)</f>
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -3869,10 +5450,18 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B198, C198)</f>
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -3883,10 +5472,18 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B199, C199)</f>
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -3897,10 +5494,18 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B200, C200)</f>
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -3911,10 +5516,18 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B201, C201)</f>
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -3925,10 +5538,18 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B202, C202)</f>
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -3939,10 +5560,18 @@
         <v>0</v>
       </c>
       <c r="D203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B203, C203)</f>
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -3953,10 +5582,18 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B204, C204)</f>
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -3967,10 +5604,18 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B205, C205)</f>
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -3981,10 +5626,18 @@
         <v>0</v>
       </c>
       <c r="D206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B206, C206)</f>
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -3995,10 +5648,18 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B207, C207)</f>
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -4009,10 +5670,18 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B208, C208)</f>
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -4023,10 +5692,18 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B209, C209)</f>
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -4037,10 +5714,18 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B210, C210)</f>
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -4051,10 +5736,18 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B211, C211)</f>
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -4065,10 +5758,18 @@
         <v>0</v>
       </c>
       <c r="D212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B212, C212)</f>
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -4079,10 +5780,18 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B213, C213)</f>
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -4093,10 +5802,18 @@
         <v>0</v>
       </c>
       <c r="D214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B214, C214)</f>
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -4107,10 +5824,18 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B215, C215)</f>
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -4121,10 +5846,18 @@
         <v>0</v>
       </c>
       <c r="D216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B216, C216)</f>
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -4135,10 +5868,18 @@
         <v>0</v>
       </c>
       <c r="D217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B217, C217)</f>
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -4149,10 +5890,18 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B218, C218)</f>
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -4163,10 +5912,18 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B219, C219)</f>
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -4177,10 +5934,18 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B220, C220)</f>
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -4191,10 +5956,18 @@
         <v>0</v>
       </c>
       <c r="D221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B221, C221)</f>
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -4205,10 +5978,18 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B222, C222)</f>
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -4219,10 +6000,18 @@
         <v>0</v>
       </c>
       <c r="D223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B223, C223)</f>
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -4233,10 +6022,18 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B224, C224)</f>
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -4247,10 +6044,18 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B225, C225)</f>
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -4261,10 +6066,18 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B226, C226)</f>
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -4275,10 +6088,18 @@
         <v>0</v>
       </c>
       <c r="D227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B227, C227)</f>
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -4289,10 +6110,18 @@
         <v>0</v>
       </c>
       <c r="D228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B228, C228)</f>
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -4303,10 +6132,18 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B229, C229)</f>
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -4317,10 +6154,18 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B230, C230)</f>
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -4331,10 +6176,18 @@
         <v>0</v>
       </c>
       <c r="D231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B231, C231)</f>
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -4345,10 +6198,18 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+        <f>SUM(B232, C232)</f>
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -4359,6 +6220,14 @@
         <v>0</v>
       </c>
       <c r="D233">
+        <f>SUM(B233, C233)</f>
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/cleaned lit review results.xlsx
+++ b/cleaned lit review results.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A98C58F-90EC-5C47-99FD-33F80595B454}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFF5E0E8-4663-9D4F-AF23-5772694E4C5C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="26840" windowHeight="15020" xr2:uid="{6572F45F-1008-5345-97C2-68802297C706}"/>
+    <workbookView xWindow="11480" yWindow="1300" windowWidth="17320" windowHeight="12900" xr2:uid="{6572F45F-1008-5345-97C2-68802297C706}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1094,11 +1100,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094E9D58-D3DF-3440-9862-D36736538020}">
   <dimension ref="A1:F233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.1640625" customWidth="1"/>
     <col min="2" max="2" width="30.1640625" customWidth="1"/>
@@ -1138,7 +1144,7 @@
         <v>244</v>
       </c>
       <c r="D2">
-        <f>SUM(B2, C2)</f>
+        <f t="shared" ref="D2:D65" si="0">SUM(B2, C2)</f>
         <v>2706</v>
       </c>
       <c r="E2">
@@ -1160,14 +1166,14 @@
         <v>58</v>
       </c>
       <c r="D3">
-        <f>SUM(B3, C3)</f>
+        <f t="shared" si="0"/>
         <v>1101</v>
       </c>
       <c r="E3">
         <v>9</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">(D3-E3)</f>
+        <f t="shared" ref="F3:F66" si="1">(D3-E3)</f>
         <v>1092</v>
       </c>
     </row>
@@ -1182,14 +1188,14 @@
         <v>81</v>
       </c>
       <c r="D4">
-        <f>SUM(B4, C4)</f>
+        <f t="shared" si="0"/>
         <v>1085</v>
       </c>
       <c r="E4">
         <v>40</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1045</v>
       </c>
     </row>
@@ -1204,14 +1210,14 @@
         <v>57</v>
       </c>
       <c r="D5">
-        <f>SUM(B5, C5)</f>
+        <f t="shared" si="0"/>
         <v>823</v>
       </c>
       <c r="E5">
         <v>74</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>749</v>
       </c>
     </row>
@@ -1226,14 +1232,14 @@
         <v>76</v>
       </c>
       <c r="D6">
-        <f>SUM(B6, C6)</f>
+        <f t="shared" si="0"/>
         <v>801</v>
       </c>
       <c r="E6">
         <v>84</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>717</v>
       </c>
     </row>
@@ -1248,14 +1254,14 @@
         <v>59</v>
       </c>
       <c r="D7">
-        <f>SUM(B7, C7)</f>
+        <f t="shared" si="0"/>
         <v>746</v>
       </c>
       <c r="E7">
         <v>45</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>701</v>
       </c>
     </row>
@@ -1270,14 +1276,14 @@
         <v>44</v>
       </c>
       <c r="D8">
-        <f>SUM(B8, C8)</f>
+        <f t="shared" si="0"/>
         <v>697</v>
       </c>
       <c r="E8">
         <v>37</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>660</v>
       </c>
     </row>
@@ -1292,14 +1298,14 @@
         <v>59</v>
       </c>
       <c r="D9">
-        <f>SUM(B9, C9)</f>
+        <f t="shared" si="0"/>
         <v>503</v>
       </c>
       <c r="E9">
         <v>37</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>466</v>
       </c>
     </row>
@@ -1314,14 +1320,14 @@
         <v>36</v>
       </c>
       <c r="D10">
-        <f>SUM(B10, C10)</f>
+        <f t="shared" si="0"/>
         <v>476</v>
       </c>
       <c r="E10">
         <v>43</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>433</v>
       </c>
     </row>
@@ -1336,15 +1342,15 @@
         <v>30</v>
       </c>
       <c r="D11">
-        <f>SUM(B11, C11)</f>
+        <f t="shared" si="0"/>
         <v>456</v>
       </c>
       <c r="E11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>433</v>
+        <f t="shared" si="1"/>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1358,14 +1364,14 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <f>SUM(B12, C12)</f>
+        <f t="shared" si="0"/>
         <v>407</v>
       </c>
       <c r="E12">
         <v>7</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
@@ -1380,14 +1386,14 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <f>SUM(B13, C13)</f>
+        <f t="shared" si="0"/>
         <v>347</v>
       </c>
       <c r="E13">
         <v>14</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>333</v>
       </c>
     </row>
@@ -1402,14 +1408,14 @@
         <v>11</v>
       </c>
       <c r="D14">
-        <f>SUM(B14, C14)</f>
+        <f t="shared" si="0"/>
         <v>307</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>304</v>
       </c>
     </row>
@@ -1424,14 +1430,14 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <f>SUM(B15, C15)</f>
+        <f t="shared" si="0"/>
         <v>316</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>306</v>
       </c>
     </row>
@@ -1446,14 +1452,14 @@
         <v>38</v>
       </c>
       <c r="D16">
-        <f>SUM(B16, C16)</f>
+        <f t="shared" si="0"/>
         <v>310</v>
       </c>
       <c r="E16">
         <v>18</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
     </row>
@@ -1468,14 +1474,14 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <f>SUM(B17, C17)</f>
+        <f t="shared" si="0"/>
         <v>259</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>256</v>
       </c>
     </row>
@@ -1490,14 +1496,14 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <f>SUM(B18, C18)</f>
+        <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>229</v>
       </c>
     </row>
@@ -1512,14 +1518,14 @@
         <v>19</v>
       </c>
       <c r="D19">
-        <f>SUM(B19, C19)</f>
+        <f t="shared" si="0"/>
         <v>245</v>
       </c>
       <c r="E19">
         <v>14</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>231</v>
       </c>
     </row>
@@ -1534,14 +1540,14 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <f>SUM(B20, C20)</f>
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>198</v>
       </c>
     </row>
@@ -1556,14 +1562,14 @@
         <v>14</v>
       </c>
       <c r="D21">
-        <f>SUM(B21, C21)</f>
+        <f t="shared" si="0"/>
         <v>202</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>192</v>
       </c>
     </row>
@@ -1578,14 +1584,14 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <f>SUM(B22, C22)</f>
+        <f t="shared" si="0"/>
         <v>169</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>169</v>
       </c>
     </row>
@@ -1600,14 +1606,14 @@
         <v>7</v>
       </c>
       <c r="D23">
-        <f>SUM(B23, C23)</f>
+        <f t="shared" si="0"/>
         <v>141</v>
       </c>
       <c r="E23">
         <v>5</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>136</v>
       </c>
     </row>
@@ -1622,14 +1628,14 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <f>SUM(B24, C24)</f>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
     </row>
@@ -1644,14 +1650,14 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <f>SUM(B25, C25)</f>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
@@ -1666,15 +1672,15 @@
         <v>8</v>
       </c>
       <c r="D26">
-        <f>SUM(B26, C26)</f>
+        <f t="shared" si="0"/>
         <v>112</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>106</v>
+        <f t="shared" si="1"/>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1688,14 +1694,14 @@
         <v>7</v>
       </c>
       <c r="D27">
-        <f>SUM(B27, C27)</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
@@ -1710,14 +1716,14 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <f>SUM(B28, C28)</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="E28">
         <v>8</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
@@ -1732,14 +1738,14 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <f>SUM(B29, C29)</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -1754,14 +1760,14 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <f>SUM(B30, C30)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
@@ -1776,14 +1782,14 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <f>SUM(B31, C31)</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
     </row>
@@ -1798,14 +1804,14 @@
         <v>5</v>
       </c>
       <c r="D32">
-        <f>SUM(B32, C32)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
@@ -1820,14 +1826,14 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <f>SUM(B33, C33)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
     </row>
@@ -1842,14 +1848,14 @@
         <v>12</v>
       </c>
       <c r="D34">
-        <f>SUM(B34, C34)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
@@ -1864,14 +1870,14 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <f>SUM(B35, C35)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
     </row>
@@ -1886,14 +1892,14 @@
         <v>4</v>
       </c>
       <c r="D36">
-        <f>SUM(B36, C36)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -1908,14 +1914,14 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <f>SUM(B37, C37)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="E37">
         <v>8</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
@@ -1930,14 +1936,14 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <f>SUM(B38, C38)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
@@ -1952,14 +1958,14 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <f>SUM(B39, C39)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -1974,14 +1980,14 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <f>SUM(B40, C40)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
@@ -1996,14 +2002,14 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <f>SUM(B41, C41)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E41">
         <v>6</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
@@ -2018,14 +2024,14 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <f>SUM(B42, C42)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E42">
         <v>5</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -2040,14 +2046,14 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <f>SUM(B43, C43)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -2062,14 +2068,14 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <f>SUM(B44, C44)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -2084,14 +2090,14 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <f>SUM(B45, C45)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
@@ -2106,14 +2112,14 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <f>SUM(B46, C46)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
@@ -2128,14 +2134,14 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <f>SUM(B47, C47)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
@@ -2150,14 +2156,14 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <f>SUM(B48, C48)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
@@ -2172,14 +2178,14 @@
         <v>3</v>
       </c>
       <c r="D49">
-        <f>SUM(B49, C49)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
@@ -2194,14 +2200,14 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <f>SUM(B50, C50)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -2216,14 +2222,14 @@
         <v>3</v>
       </c>
       <c r="D51">
-        <f>SUM(B51, C51)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
@@ -2238,14 +2244,14 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <f>SUM(B52, C52)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E52">
         <v>3</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -2260,14 +2266,14 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <f>SUM(B53, C53)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -2282,14 +2288,14 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <f>SUM(B54, C54)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -2304,14 +2310,14 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <f>SUM(B55, C55)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -2326,14 +2332,14 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <f>SUM(B56, C56)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E56">
         <v>3</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -2348,14 +2354,14 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <f>SUM(B57, C57)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -2370,14 +2376,14 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <f>SUM(B58, C58)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -2392,14 +2398,14 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <f>SUM(B59, C59)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E59">
         <v>2</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -2414,14 +2420,14 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <f>SUM(B60, C60)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -2436,14 +2442,14 @@
         <v>2</v>
       </c>
       <c r="D61">
-        <f>SUM(B61, C61)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -2458,14 +2464,14 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <f>SUM(B62, C62)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -2480,14 +2486,14 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <f>SUM(B63, C63)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -2502,14 +2508,14 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <f>SUM(B64, C64)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -2524,14 +2530,14 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <f>SUM(B65, C65)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -2546,14 +2552,14 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <f>SUM(B66, C66)</f>
+        <f t="shared" ref="D66:D129" si="2">SUM(B66, C66)</f>
         <v>10</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -2568,14 +2574,14 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <f>SUM(B67, C67)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="1">(D67-E67)</f>
+        <f t="shared" ref="F67:F130" si="3">(D67-E67)</f>
         <v>10</v>
       </c>
     </row>
@@ -2590,14 +2596,14 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <f>SUM(B68, C68)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -2612,14 +2618,14 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <f>SUM(B69, C69)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -2634,14 +2640,14 @@
         <v>5</v>
       </c>
       <c r="D70">
-        <f>SUM(B70, C70)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="E70">
         <v>2</v>
       </c>
       <c r="F70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -2656,14 +2662,14 @@
         <v>2</v>
       </c>
       <c r="D71">
-        <f>SUM(B71, C71)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -2678,14 +2684,14 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <f>SUM(B72, C72)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -2700,14 +2706,14 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <f>SUM(B73, C73)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2722,14 +2728,14 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <f>SUM(B74, C74)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2744,14 +2750,14 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <f>SUM(B75, C75)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2766,14 +2772,14 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <f>SUM(B76, C76)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2788,14 +2794,14 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <f>SUM(B77, C77)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2810,14 +2816,14 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <f>SUM(B78, C78)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2832,14 +2838,14 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <f>SUM(B79, C79)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -2854,14 +2860,14 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <f>SUM(B80, C80)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2876,14 +2882,14 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <f>SUM(B81, C81)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2898,14 +2904,14 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <f>SUM(B82, C82)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2920,14 +2926,14 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <f>SUM(B83, C83)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2942,14 +2948,14 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <f>SUM(B84, C84)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2964,14 +2970,14 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <f>SUM(B85, C85)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -2986,14 +2992,14 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <f>SUM(B86, C86)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3008,14 +3014,14 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <f>SUM(B87, C87)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3030,14 +3036,14 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <f>SUM(B88, C88)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3052,14 +3058,14 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <f>SUM(B89, C89)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3074,14 +3080,14 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <f>SUM(B90, C90)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3096,14 +3102,14 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <f>SUM(B91, C91)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3118,14 +3124,14 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <f>SUM(B92, C92)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3140,14 +3146,14 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <f>SUM(B93, C93)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3162,14 +3168,14 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <f>SUM(B94, C94)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3184,14 +3190,14 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <f>SUM(B95, C95)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3206,14 +3212,14 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <f>SUM(B96, C96)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3228,14 +3234,14 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <f>SUM(B97, C97)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3250,14 +3256,14 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <f>SUM(B98, C98)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3272,14 +3278,14 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <f>SUM(B99, C99)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3294,14 +3300,14 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <f>SUM(B100, C100)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3316,14 +3322,14 @@
         <v>2</v>
       </c>
       <c r="D101">
-        <f>SUM(B101, C101)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3338,14 +3344,14 @@
         <v>3</v>
       </c>
       <c r="D102">
-        <f>SUM(B102, C102)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -3360,14 +3366,14 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <f>SUM(B103, C103)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3382,14 +3388,14 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <f>SUM(B104, C104)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3404,14 +3410,14 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <f>SUM(B105, C105)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3426,14 +3432,14 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <f>SUM(B106, C106)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3448,14 +3454,14 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <f>SUM(B107, C107)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3470,14 +3476,14 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <f>SUM(B108, C108)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3492,14 +3498,14 @@
         <v>2</v>
       </c>
       <c r="D109">
-        <f>SUM(B109, C109)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3514,14 +3520,14 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <f>SUM(B110, C110)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3536,14 +3542,14 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <f>SUM(B111, C111)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3558,14 +3564,14 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <f>SUM(B112, C112)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3580,14 +3586,14 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <f>SUM(B113, C113)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3602,14 +3608,14 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <f>SUM(B114, C114)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3624,14 +3630,14 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <f>SUM(B115, C115)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3646,14 +3652,14 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <f>SUM(B116, C116)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3668,14 +3674,14 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <f>SUM(B117, C117)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3690,14 +3696,14 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <f>SUM(B118, C118)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3712,14 +3718,14 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <f>SUM(B119, C119)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3734,14 +3740,14 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <f>SUM(B120, C120)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3756,14 +3762,14 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <f>SUM(B121, C121)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3778,14 +3784,14 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <f>SUM(B122, C122)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3800,14 +3806,14 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <f>SUM(B123, C123)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3822,14 +3828,14 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <f>SUM(B124, C124)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3844,14 +3850,14 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <f>SUM(B125, C125)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3866,14 +3872,14 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <f>SUM(B126, C126)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3888,14 +3894,14 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <f>SUM(B127, C127)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3910,14 +3916,14 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <f>SUM(B128, C128)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="F128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3932,14 +3938,14 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <f>SUM(B129, C129)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
       <c r="F129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3954,14 +3960,14 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <f>SUM(B130, C130)</f>
+        <f t="shared" ref="D130:D193" si="4">SUM(B130, C130)</f>
         <v>1</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3976,14 +3982,14 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <f>SUM(B131, C131)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="2">(D131-E131)</f>
+        <f t="shared" ref="F131:F194" si="5">(D131-E131)</f>
         <v>1</v>
       </c>
     </row>
@@ -3998,14 +4004,14 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <f>SUM(B132, C132)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4020,14 +4026,14 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <f>SUM(B133, C133)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4042,14 +4048,14 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <f>SUM(B134, C134)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4064,14 +4070,14 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <f>SUM(B135, C135)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4086,14 +4092,14 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <f>SUM(B136, C136)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4108,14 +4114,14 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <f>SUM(B137, C137)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E137">
         <v>0</v>
       </c>
       <c r="F137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4130,14 +4136,14 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <f>SUM(B138, C138)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E138">
         <v>0</v>
       </c>
       <c r="F138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4152,14 +4158,14 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <f>SUM(B139, C139)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E139">
         <v>0</v>
       </c>
       <c r="F139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4174,14 +4180,14 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <f>SUM(B140, C140)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
       <c r="F140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4196,14 +4202,14 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <f>SUM(B141, C141)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
       <c r="F141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4218,14 +4224,14 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <f>SUM(B142, C142)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4240,14 +4246,14 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <f>SUM(B143, C143)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4262,14 +4268,14 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <f>SUM(B144, C144)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4284,14 +4290,14 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <f>SUM(B145, C145)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4306,14 +4312,14 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <f>SUM(B146, C146)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4328,14 +4334,14 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <f>SUM(B147, C147)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4350,14 +4356,14 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <f>SUM(B148, C148)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4372,14 +4378,14 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <f>SUM(B149, C149)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4394,14 +4400,14 @@
         <v>0</v>
       </c>
       <c r="D150">
-        <f>SUM(B150, C150)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4416,14 +4422,14 @@
         <v>0</v>
       </c>
       <c r="D151">
-        <f>SUM(B151, C151)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4438,14 +4444,14 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <f>SUM(B152, C152)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4460,14 +4466,14 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <f>SUM(B153, C153)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4482,14 +4488,14 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <f>SUM(B154, C154)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4504,14 +4510,14 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <f>SUM(B155, C155)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E155">
         <v>0</v>
       </c>
       <c r="F155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4526,14 +4532,14 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <f>SUM(B156, C156)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E156">
         <v>0</v>
       </c>
       <c r="F156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4548,14 +4554,14 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <f>SUM(B157, C157)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E157">
         <v>0</v>
       </c>
       <c r="F157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4570,14 +4576,14 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <f>SUM(B158, C158)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E158">
         <v>0</v>
       </c>
       <c r="F158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4592,14 +4598,14 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <f>SUM(B159, C159)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E159">
         <v>0</v>
       </c>
       <c r="F159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4614,14 +4620,14 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <f>SUM(B160, C160)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E160">
         <v>0</v>
       </c>
       <c r="F160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4636,14 +4642,14 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <f>SUM(B161, C161)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E161">
         <v>0</v>
       </c>
       <c r="F161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4658,14 +4664,14 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <f>SUM(B162, C162)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E162">
         <v>0</v>
       </c>
       <c r="F162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4680,14 +4686,14 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <f>SUM(B163, C163)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E163">
         <v>0</v>
       </c>
       <c r="F163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4702,14 +4708,14 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <f>SUM(B164, C164)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E164">
         <v>0</v>
       </c>
       <c r="F164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4724,14 +4730,14 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <f>SUM(B165, C165)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E165">
         <v>0</v>
       </c>
       <c r="F165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4746,14 +4752,14 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <f>SUM(B166, C166)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E166">
         <v>0</v>
       </c>
       <c r="F166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4768,14 +4774,14 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <f>SUM(B167, C167)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E167">
         <v>0</v>
       </c>
       <c r="F167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4790,14 +4796,14 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <f>SUM(B168, C168)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E168">
         <v>0</v>
       </c>
       <c r="F168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4812,14 +4818,14 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <f>SUM(B169, C169)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E169">
         <v>0</v>
       </c>
       <c r="F169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4834,14 +4840,14 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <f>SUM(B170, C170)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E170">
         <v>0</v>
       </c>
       <c r="F170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4856,14 +4862,14 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <f>SUM(B171, C171)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E171">
         <v>0</v>
       </c>
       <c r="F171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4878,14 +4884,14 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <f>SUM(B172, C172)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
       <c r="F172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4900,14 +4906,14 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <f>SUM(B173, C173)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E173">
         <v>0</v>
       </c>
       <c r="F173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4922,14 +4928,14 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <f>SUM(B174, C174)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E174">
         <v>0</v>
       </c>
       <c r="F174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4944,14 +4950,14 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <f>SUM(B175, C175)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E175">
         <v>0</v>
       </c>
       <c r="F175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4966,14 +4972,14 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <f>SUM(B176, C176)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E176">
         <v>0</v>
       </c>
       <c r="F176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4988,14 +4994,14 @@
         <v>0</v>
       </c>
       <c r="D177">
-        <f>SUM(B177, C177)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E177">
         <v>0</v>
       </c>
       <c r="F177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5010,14 +5016,14 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <f>SUM(B178, C178)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E178">
         <v>0</v>
       </c>
       <c r="F178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5032,14 +5038,14 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <f>SUM(B179, C179)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E179">
         <v>0</v>
       </c>
       <c r="F179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5054,14 +5060,14 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <f>SUM(B180, C180)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E180">
         <v>0</v>
       </c>
       <c r="F180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5076,14 +5082,14 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <f>SUM(B181, C181)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E181">
         <v>0</v>
       </c>
       <c r="F181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5098,14 +5104,14 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <f>SUM(B182, C182)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E182">
         <v>0</v>
       </c>
       <c r="F182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5120,14 +5126,14 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <f>SUM(B183, C183)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E183">
         <v>0</v>
       </c>
       <c r="F183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5142,14 +5148,14 @@
         <v>0</v>
       </c>
       <c r="D184">
-        <f>SUM(B184, C184)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E184">
         <v>0</v>
       </c>
       <c r="F184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5164,14 +5170,14 @@
         <v>0</v>
       </c>
       <c r="D185">
-        <f>SUM(B185, C185)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E185">
         <v>0</v>
       </c>
       <c r="F185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5186,14 +5192,14 @@
         <v>0</v>
       </c>
       <c r="D186">
-        <f>SUM(B186, C186)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E186">
         <v>0</v>
       </c>
       <c r="F186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5208,14 +5214,14 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <f>SUM(B187, C187)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E187">
         <v>0</v>
       </c>
       <c r="F187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5230,14 +5236,14 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <f>SUM(B188, C188)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E188">
         <v>0</v>
       </c>
       <c r="F188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5252,14 +5258,14 @@
         <v>0</v>
       </c>
       <c r="D189">
-        <f>SUM(B189, C189)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E189">
         <v>0</v>
       </c>
       <c r="F189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5274,14 +5280,14 @@
         <v>0</v>
       </c>
       <c r="D190">
-        <f>SUM(B190, C190)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E190">
         <v>0</v>
       </c>
       <c r="F190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5296,14 +5302,14 @@
         <v>0</v>
       </c>
       <c r="D191">
-        <f>SUM(B191, C191)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E191">
         <v>0</v>
       </c>
       <c r="F191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5318,14 +5324,14 @@
         <v>0</v>
       </c>
       <c r="D192">
-        <f>SUM(B192, C192)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E192">
         <v>0</v>
       </c>
       <c r="F192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5340,14 +5346,14 @@
         <v>0</v>
       </c>
       <c r="D193">
-        <f>SUM(B193, C193)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E193">
         <v>0</v>
       </c>
       <c r="F193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5362,14 +5368,14 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <f>SUM(B194, C194)</f>
+        <f t="shared" ref="D194:D233" si="6">SUM(B194, C194)</f>
         <v>0</v>
       </c>
       <c r="E194">
         <v>0</v>
       </c>
       <c r="F194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5384,14 +5390,14 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <f>SUM(B195, C195)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E195">
         <v>0</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F233" si="3">(D195-E195)</f>
+        <f t="shared" ref="F195:F233" si="7">(D195-E195)</f>
         <v>0</v>
       </c>
     </row>
@@ -5406,14 +5412,14 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <f>SUM(B196, C196)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E196">
         <v>0</v>
       </c>
       <c r="F196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5428,14 +5434,14 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <f>SUM(B197, C197)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E197">
         <v>0</v>
       </c>
       <c r="F197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5450,14 +5456,14 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <f>SUM(B198, C198)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E198">
         <v>0</v>
       </c>
       <c r="F198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5472,14 +5478,14 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <f>SUM(B199, C199)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E199">
         <v>0</v>
       </c>
       <c r="F199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5494,14 +5500,14 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <f>SUM(B200, C200)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E200">
         <v>0</v>
       </c>
       <c r="F200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5516,14 +5522,14 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <f>SUM(B201, C201)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E201">
         <v>0</v>
       </c>
       <c r="F201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5538,14 +5544,14 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <f>SUM(B202, C202)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E202">
         <v>0</v>
       </c>
       <c r="F202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5560,14 +5566,14 @@
         <v>0</v>
       </c>
       <c r="D203">
-        <f>SUM(B203, C203)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E203">
         <v>0</v>
       </c>
       <c r="F203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5582,14 +5588,14 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <f>SUM(B204, C204)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E204">
         <v>0</v>
       </c>
       <c r="F204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5604,14 +5610,14 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <f>SUM(B205, C205)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E205">
         <v>0</v>
       </c>
       <c r="F205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5626,14 +5632,14 @@
         <v>0</v>
       </c>
       <c r="D206">
-        <f>SUM(B206, C206)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E206">
         <v>0</v>
       </c>
       <c r="F206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5648,14 +5654,14 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <f>SUM(B207, C207)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E207">
         <v>0</v>
       </c>
       <c r="F207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5670,14 +5676,14 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <f>SUM(B208, C208)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E208">
         <v>0</v>
       </c>
       <c r="F208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5692,14 +5698,14 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <f>SUM(B209, C209)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E209">
         <v>0</v>
       </c>
       <c r="F209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5714,14 +5720,14 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <f>SUM(B210, C210)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E210">
         <v>0</v>
       </c>
       <c r="F210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5736,14 +5742,14 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <f>SUM(B211, C211)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E211">
         <v>0</v>
       </c>
       <c r="F211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5758,14 +5764,14 @@
         <v>0</v>
       </c>
       <c r="D212">
-        <f>SUM(B212, C212)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E212">
         <v>0</v>
       </c>
       <c r="F212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5780,14 +5786,14 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <f>SUM(B213, C213)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E213">
         <v>0</v>
       </c>
       <c r="F213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5802,14 +5808,14 @@
         <v>0</v>
       </c>
       <c r="D214">
-        <f>SUM(B214, C214)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E214">
         <v>0</v>
       </c>
       <c r="F214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5824,14 +5830,14 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <f>SUM(B215, C215)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E215">
         <v>0</v>
       </c>
       <c r="F215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5846,14 +5852,14 @@
         <v>0</v>
       </c>
       <c r="D216">
-        <f>SUM(B216, C216)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E216">
         <v>0</v>
       </c>
       <c r="F216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5868,14 +5874,14 @@
         <v>0</v>
       </c>
       <c r="D217">
-        <f>SUM(B217, C217)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E217">
         <v>0</v>
       </c>
       <c r="F217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5890,14 +5896,14 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <f>SUM(B218, C218)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E218">
         <v>0</v>
       </c>
       <c r="F218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5912,14 +5918,14 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <f>SUM(B219, C219)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E219">
         <v>0</v>
       </c>
       <c r="F219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5934,14 +5940,14 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <f>SUM(B220, C220)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E220">
         <v>0</v>
       </c>
       <c r="F220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5956,14 +5962,14 @@
         <v>0</v>
       </c>
       <c r="D221">
-        <f>SUM(B221, C221)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E221">
         <v>0</v>
       </c>
       <c r="F221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5978,14 +5984,14 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <f>SUM(B222, C222)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E222">
         <v>0</v>
       </c>
       <c r="F222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6000,14 +6006,14 @@
         <v>0</v>
       </c>
       <c r="D223">
-        <f>SUM(B223, C223)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E223">
         <v>0</v>
       </c>
       <c r="F223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6022,14 +6028,14 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <f>SUM(B224, C224)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E224">
         <v>0</v>
       </c>
       <c r="F224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6044,14 +6050,14 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <f>SUM(B225, C225)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E225">
         <v>0</v>
       </c>
       <c r="F225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6066,14 +6072,14 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <f>SUM(B226, C226)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E226">
         <v>0</v>
       </c>
       <c r="F226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6088,14 +6094,14 @@
         <v>0</v>
       </c>
       <c r="D227">
-        <f>SUM(B227, C227)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E227">
         <v>0</v>
       </c>
       <c r="F227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6110,14 +6116,14 @@
         <v>0</v>
       </c>
       <c r="D228">
-        <f>SUM(B228, C228)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E228">
         <v>0</v>
       </c>
       <c r="F228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6132,14 +6138,14 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <f>SUM(B229, C229)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E229">
         <v>0</v>
       </c>
       <c r="F229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6154,14 +6160,14 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <f>SUM(B230, C230)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E230">
         <v>0</v>
       </c>
       <c r="F230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6176,14 +6182,14 @@
         <v>0</v>
       </c>
       <c r="D231">
-        <f>SUM(B231, C231)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E231">
         <v>0</v>
       </c>
       <c r="F231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6198,14 +6204,14 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <f>SUM(B232, C232)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E232">
         <v>0</v>
       </c>
       <c r="F232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6220,14 +6226,14 @@
         <v>0</v>
       </c>
       <c r="D233">
-        <f>SUM(B233, C233)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E233">
         <v>0</v>
       </c>
       <c r="F233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>

--- a/cleaned lit review results.xlsx
+++ b/cleaned lit review results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFF5E0E8-4663-9D4F-AF23-5772694E4C5C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66015F79-5ED7-8045-9423-AA69CC92C2E6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="1300" windowWidth="17320" windowHeight="12900" xr2:uid="{6572F45F-1008-5345-97C2-68802297C706}"/>
+    <workbookView xWindow="11480" yWindow="1380" windowWidth="17320" windowHeight="12900" xr2:uid="{6572F45F-1008-5345-97C2-68802297C706}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1100,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094E9D58-D3DF-3440-9862-D36736538020}">
   <dimension ref="A1:F233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1148,11 +1148,11 @@
         <v>2706</v>
       </c>
       <c r="E2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F2">
         <f>(D2-E2)</f>
-        <v>2607</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1170,11 +1170,11 @@
         <v>1101</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="1">(D3-E3)</f>
-        <v>1092</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1236,11 +1236,11 @@
         <v>801</v>
       </c>
       <c r="E6">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1258,11 +1258,11 @@
         <v>746</v>
       </c>
       <c r="E7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1280,11 +1280,11 @@
         <v>697</v>
       </c>
       <c r="E8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1324,11 +1324,11 @@
         <v>476</v>
       </c>
       <c r="E10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1654,11 +1654,11 @@
         <v>116</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">

--- a/cleaned lit review results.xlsx
+++ b/cleaned lit review results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66015F79-5ED7-8045-9423-AA69CC92C2E6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39AB0FC6-BD3D-9841-B090-CC439C98D461}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="1380" windowWidth="17320" windowHeight="12900" xr2:uid="{6572F45F-1008-5345-97C2-68802297C706}"/>
+    <workbookView xWindow="11480" yWindow="680" windowWidth="17320" windowHeight="12900" xr2:uid="{6572F45F-1008-5345-97C2-68802297C706}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1100,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094E9D58-D3DF-3440-9862-D36736538020}">
   <dimension ref="A1:F233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1258,11 +1258,11 @@
         <v>746</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1280,11 +1280,11 @@
         <v>697</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1324,11 +1324,11 @@
         <v>476</v>
       </c>
       <c r="E10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
